--- a/player_d_dash/defense-dash-2pt_SeasonType_Playoffs_Season_2017-18.xlsx
+++ b/player_d_dash/defense-dash-2pt_SeasonType_Playoffs_Season_2017-18.xlsx
@@ -2274,12 +2274,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>E'Twaun Moore</t>
+          <t>Evan Turner</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2294,22 +2294,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>71.6%</t>
+          <t>78.8%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-11.1</t>
+          <t>6.6</t>
         </is>
       </c>
     </row>
@@ -2339,12 +2339,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Evan Turner</t>
+          <t>E'Twaun Moore</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2359,22 +2359,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>78.8%</t>
+          <t>71.6%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2384,17 +2384,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>-11.1</t>
         </is>
       </c>
     </row>
@@ -2729,22 +2729,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>66.3%</t>
+          <t>60.2%</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2774,17 +2774,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>11.6</t>
         </is>
       </c>
     </row>
@@ -2794,22 +2794,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>60.2%</t>
+          <t>66.3%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2839,17 +2839,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>-1.6</t>
         </is>
       </c>
     </row>
@@ -3184,42 +3184,42 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Thon Maker</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>72.7%</t>
+          <t>64.9%</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3229,17 +3229,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-9.3</t>
         </is>
       </c>
     </row>
@@ -3249,42 +3249,42 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Thon Maker</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>64.9%</t>
+          <t>72.7%</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3294,17 +3294,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-9.3</t>
+          <t>-5.3</t>
         </is>
       </c>
     </row>
@@ -4094,22 +4094,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Danny Green</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>76.6%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4144,12 +4144,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>-6.6</t>
+          <t>-5.6</t>
         </is>
       </c>
     </row>
@@ -4159,22 +4159,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Danny Green</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>76.6%</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4209,12 +4209,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>-5.6</t>
+          <t>-6.6</t>
         </is>
       </c>
     </row>
@@ -4744,22 +4744,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Otto Porter Jr.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4774,12 +4774,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>94.3%</t>
+          <t>68.8%</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4789,17 +4789,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>-6.6</t>
+          <t>-4.0</t>
         </is>
       </c>
     </row>
@@ -4874,22 +4874,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Otto Porter Jr.</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>68.8%</t>
+          <t>94.3%</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4919,17 +4919,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-6.6</t>
         </is>
       </c>
     </row>
@@ -5719,12 +5719,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ed Davis</t>
+          <t>Derrick Rose</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5734,27 +5734,27 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>65.2%</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5764,17 +5764,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -5784,12 +5784,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Derrick Rose</t>
+          <t>Ed Davis</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5799,27 +5799,27 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>65.2%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5829,17 +5829,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
@@ -5979,42 +5979,42 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Mike Scott</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6024,17 +6024,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>-4.9</t>
         </is>
       </c>
     </row>
@@ -6044,42 +6044,42 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Mike Scott</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6089,17 +6089,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -6239,22 +6239,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Manu Ginobili</t>
+          <t>Ian Mahinmi</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6269,12 +6269,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>87.5%</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6284,17 +6284,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>-12.0</t>
         </is>
       </c>
     </row>
@@ -6304,22 +6304,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ian Mahinmi</t>
+          <t>Manu Ginobili</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6334,12 +6334,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6349,17 +6349,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>9.9</t>
         </is>
       </c>
     </row>
@@ -6629,12 +6629,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Goran Dragic</t>
+          <t>Marco Belinelli</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6644,27 +6644,27 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6674,17 +6674,17 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>7.8</t>
         </is>
       </c>
     </row>
@@ -6694,12 +6694,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Marco Belinelli</t>
+          <t>Goran Dragic</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6709,27 +6709,27 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6739,17 +6739,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>9.3</t>
         </is>
       </c>
     </row>
@@ -6889,17 +6889,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Pau Gasol</t>
+          <t>Hassan Whiteside</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6919,12 +6919,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>72.2%</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6934,17 +6934,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -6954,17 +6954,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Hassan Whiteside</t>
+          <t>Pau Gasol</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -6984,12 +6984,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>72.2%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6999,17 +6999,17 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>56.3</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>5.3</t>
         </is>
       </c>
     </row>
@@ -7019,17 +7019,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Kelly Oubre Jr.</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7049,12 +7049,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>60.8%</t>
+          <t>64.6%</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7064,17 +7064,17 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -7084,17 +7084,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Kelly Oubre Jr.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7114,12 +7114,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>64.6%</t>
+          <t>60.8%</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7129,17 +7129,17 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>6.1</t>
         </is>
       </c>
     </row>
@@ -7279,42 +7279,42 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Royce O'Neale</t>
+          <t>Shabazz Napier</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>56.7%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -7324,17 +7324,17 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>-10.9</t>
+          <t>7.6</t>
         </is>
       </c>
     </row>
@@ -7344,17 +7344,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7364,22 +7364,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>59.4%</t>
+          <t>56.7%</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7389,17 +7389,17 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-10.9</t>
         </is>
       </c>
     </row>
@@ -7409,42 +7409,42 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Jordan Crawford</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>83.3%</t>
+          <t>59.4%</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7454,17 +7454,17 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>-37.8</t>
+          <t>-1.6</t>
         </is>
       </c>
     </row>
@@ -7474,17 +7474,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Shabazz Napier</t>
+          <t>Jordan Crawford</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -7494,22 +7494,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>83.3%</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7519,17 +7519,17 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>-37.8</t>
         </is>
       </c>
     </row>
@@ -7864,42 +7864,42 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Andre Iguodala</t>
+          <t>Tyler Johnson</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>59.4%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7909,17 +7909,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -7929,42 +7929,42 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Tyler Johnson</t>
+          <t>Andre Iguodala</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>59.4%</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7974,17 +7974,17 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -8189,22 +8189,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Nene</t>
+          <t>Shane Larkin</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -8214,17 +8214,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>70.5%</t>
+          <t>75.4%</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -8234,17 +8234,17 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-6.4</t>
+          <t>6.2</t>
         </is>
       </c>
     </row>
@@ -8254,22 +8254,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Shane Larkin</t>
+          <t>Nene</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -8279,17 +8279,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>75.4%</t>
+          <t>70.5%</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -8299,17 +8299,17 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>-6.4</t>
         </is>
       </c>
     </row>
@@ -8319,7 +8319,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Tyler Zeller</t>
+          <t>Tony Snell</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -8329,12 +8329,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -8349,12 +8349,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>84.4%</t>
+          <t>81.8%</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8364,17 +8364,17 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>-12.1</t>
         </is>
       </c>
     </row>
@@ -8384,22 +8384,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lance Stephenson</t>
+          <t>Tyler Zeller</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -8414,12 +8414,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>65.9%</t>
+          <t>84.4%</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8429,17 +8429,17 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>70.4</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>6.6</t>
         </is>
       </c>
     </row>
@@ -8449,17 +8449,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Tony Snell</t>
+          <t>Lance Stephenson</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -8479,12 +8479,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>81.8%</t>
+          <t>65.9%</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8494,17 +8494,17 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>70.4</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>-12.1</t>
+          <t>14.2</t>
         </is>
       </c>
     </row>
@@ -9424,17 +9424,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Dante Exum</t>
+          <t>Shaun Livingston</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -9444,22 +9444,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>66.0%</t>
+          <t>63.7%</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9469,17 +9469,17 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>-5.7</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
@@ -9489,17 +9489,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Shaun Livingston</t>
+          <t>Dante Exum</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -9509,22 +9509,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>63.7%</t>
+          <t>66.0%</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9534,17 +9534,17 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>-5.7</t>
         </is>
       </c>
     </row>
@@ -9554,12 +9554,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>T.J. Leaf</t>
+          <t>Cheick Diallo</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -9574,22 +9574,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>67.7%</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9599,17 +9599,17 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -9684,42 +9684,42 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Bryn Forbes</t>
+          <t>Meyers Leonard</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>63.2%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9729,17 +9729,17 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>-20.8</t>
         </is>
       </c>
     </row>
@@ -9749,42 +9749,42 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Dwyane Wade</t>
+          <t>T.J. Leaf</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9794,17 +9794,17 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>-4.2</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
@@ -9879,42 +9879,42 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cheick Diallo</t>
+          <t>Bryn Forbes</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>67.7%</t>
+          <t>63.2%</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9924,17 +9924,17 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -9944,42 +9944,42 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Meyers Leonard</t>
+          <t>Dwyane Wade</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9989,17 +9989,17 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>-20.8</t>
+          <t>-4.2</t>
         </is>
       </c>
     </row>
@@ -10464,42 +10464,42 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Patrick Patterson</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>65.2%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10509,17 +10509,17 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>55.2</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>25.7</t>
+          <t>-5.2</t>
         </is>
       </c>
     </row>
@@ -10529,42 +10529,42 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Lucas Nogueira</t>
+          <t>Patrick Patterson</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>65.2%</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10574,17 +10574,17 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>19.6</t>
+          <t>25.7</t>
         </is>
       </c>
     </row>
@@ -10594,22 +10594,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Justin Anderson</t>
+          <t>Lucas Nogueira</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -10624,12 +10624,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10639,7 +10639,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>19.6</t>
         </is>
       </c>
     </row>
@@ -10659,22 +10659,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Justin Anderson</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -10684,17 +10684,17 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>71.4%</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10704,17 +10704,17 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>55.2</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>9.6</t>
         </is>
       </c>
     </row>
@@ -10854,17 +10854,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Derrick White</t>
+          <t>Lorenzo Brown</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -10879,17 +10879,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>87.5%</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10899,17 +10899,17 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-12.5</t>
+          <t>9.8</t>
         </is>
       </c>
     </row>
@@ -10919,17 +10919,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>T.J. McConnell</t>
+          <t>Matthew Dellavedova</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -10939,22 +10939,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>55.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10964,17 +10964,17 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>18.6</t>
         </is>
       </c>
     </row>
@@ -10984,17 +10984,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Lorenzo Brown</t>
+          <t>T.J. McConnell</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -11004,22 +11004,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>55.3%</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11029,17 +11029,17 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -11049,17 +11049,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Matthew Dellavedova</t>
+          <t>Derrick White</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -11069,22 +11069,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11094,17 +11094,17 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>18.6</t>
+          <t>-12.5</t>
         </is>
       </c>
     </row>
@@ -11374,27 +11374,27 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Rodney McGruder</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -11404,12 +11404,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11419,17 +11419,17 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>50.6</t>
         </is>
       </c>
     </row>
@@ -11439,62 +11439,62 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Sterling Brown</t>
+          <t>Caleb Swanigan</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>-1.4</t>
         </is>
       </c>
     </row>
@@ -11504,42 +11504,42 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Caleb Swanigan</t>
+          <t>Rodney McGruder</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11549,17 +11549,17 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>13.9</t>
         </is>
       </c>
     </row>
@@ -11569,42 +11569,42 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Josh Huestis</t>
+          <t>Ante Zizic</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>85.7%</t>
+          <t>71.4%</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11614,17 +11614,17 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>-11.1</t>
         </is>
       </c>
     </row>
@@ -11699,62 +11699,62 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ante Zizic</t>
+          <t>Josh Huestis</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>85.7%</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>49.2</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
           <t>0.8</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>-11.1</t>
         </is>
       </c>
     </row>
@@ -12154,22 +12154,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DeAndre Liggins</t>
+          <t>Richaun Holmes</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -12184,32 +12184,32 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
           <t>1.3</t>
         </is>
       </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -12219,22 +12219,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Richaun Holmes</t>
+          <t>DeAndre Liggins</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -12249,12 +12249,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12264,17 +12264,17 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>47.0</t>
         </is>
       </c>
     </row>
@@ -12414,22 +12414,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Aaron Jackson</t>
+          <t>Shabazz Muhammad</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -12439,17 +12439,17 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>83.3%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12459,17 +12459,17 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-10.8</t>
+          <t>-45.8</t>
         </is>
       </c>
     </row>
@@ -12479,22 +12479,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Damian Jones</t>
+          <t>Aaron Jackson</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -12504,17 +12504,17 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>83.3%</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12524,17 +12524,17 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>29.9</t>
+          <t>-10.8</t>
         </is>
       </c>
     </row>
@@ -12544,22 +12544,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Shabazz Muhammad</t>
+          <t>Damian Jones</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -12574,12 +12574,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>71.4%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12589,17 +12589,17 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-45.8</t>
+          <t>29.9</t>
         </is>
       </c>
     </row>
@@ -12609,22 +12609,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Tim Frazier</t>
+          <t>Tony Bradley</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -12659,12 +12659,12 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>65.3</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>34.7</t>
+          <t>46.6</t>
         </is>
       </c>
     </row>
@@ -12674,17 +12674,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Chinanu Onuaku</t>
+          <t>Emeka Okafor</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -12704,12 +12704,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12719,17 +12719,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>69.6</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-47.3</t>
+          <t>30.4</t>
         </is>
       </c>
     </row>
@@ -12739,42 +12739,42 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Joffrey Lauvergne</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12784,17 +12784,17 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>-58.1</t>
+          <t>24.6</t>
         </is>
       </c>
     </row>
@@ -12804,22 +12804,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Joffrey Lauvergne</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -12834,32 +12834,32 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>-58.1</t>
         </is>
       </c>
     </row>
@@ -12869,12 +12869,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Abdel Nader</t>
+          <t>Marcus Georges-Hunt</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -12884,27 +12884,27 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>46.2%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12914,17 +12914,17 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>51.1</t>
         </is>
       </c>
     </row>
@@ -12934,22 +12934,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Joe Young</t>
+          <t>Chinanu Onuaku</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -12964,32 +12964,32 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>70.1</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>29.9</t>
+          <t>-47.3</t>
         </is>
       </c>
     </row>
@@ -12999,22 +12999,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Marcus Georges-Hunt</t>
+          <t>Jason Smith</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -13034,27 +13034,27 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>-48.1</t>
         </is>
       </c>
     </row>
@@ -13064,42 +13064,42 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Tim Frazier</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -13109,17 +13109,17 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>65.3</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>24.6</t>
+          <t>34.7</t>
         </is>
       </c>
     </row>
@@ -13129,22 +13129,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Jason Smith</t>
+          <t>Joe Young</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -13164,7 +13164,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -13174,17 +13174,17 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>-48.1</t>
+          <t>29.9</t>
         </is>
       </c>
     </row>
@@ -13194,12 +13194,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Tony Bradley</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -13244,12 +13244,12 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>56.6</t>
         </is>
       </c>
     </row>
@@ -13259,22 +13259,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Emeka Okafor</t>
+          <t>Brandon Jennings</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -13294,27 +13294,27 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>69.6</t>
+          <t>33.7</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>30.4</t>
+          <t>-33.7</t>
         </is>
       </c>
     </row>
@@ -13324,42 +13324,42 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Brandon Jennings</t>
+          <t>Abdel Nader</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -13369,17 +13369,17 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>33.7</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>-33.7</t>
+          <t>13.2</t>
         </is>
       </c>
     </row>
@@ -13454,42 +13454,42 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>David Stockton</t>
+          <t>Tarik Black</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -13499,17 +13499,17 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>-48.9</t>
+          <t>51.5</t>
         </is>
       </c>
     </row>
@@ -13519,22 +13519,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Dakari Johnson</t>
+          <t>David Stockton</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -13554,27 +13554,27 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>-48.9</t>
         </is>
       </c>
     </row>
@@ -13584,12 +13584,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Patrick McCaw</t>
+          <t>Dakari Johnson</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -13599,7 +13599,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -13634,12 +13634,12 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>54.3</t>
         </is>
       </c>
     </row>
@@ -13649,37 +13649,37 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Tarik Black</t>
+          <t>Patrick McCaw</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -13699,12 +13699,12 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>60.6</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>39.4</t>
         </is>
       </c>
     </row>
